--- a/ProjectServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/ProjectServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanda\eclipse-workspace\ProjectServiceManagement\src\main\java\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanda\git\ServiceManagement_Project\ProjectServiceManagement\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F960BA-3835-49BC-A6E4-2B7BA0747185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC0B8F7-BF5A-458D-968A-44DC6DFA3AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="139" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>Username</t>
   </si>
@@ -239,13 +239,22 @@
   </si>
   <si>
     <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>4,1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +269,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -282,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -293,6 +308,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,6 +871,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="U5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V5" s="4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="U6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ProjectServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/ProjectServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanda\git\ServiceManagement_Project\ProjectServiceManagement\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC0B8F7-BF5A-458D-968A-44DC6DFA3AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7907A1D-5C77-4E12-A8CA-364FD92E9207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="139" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,10 +872,10 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="U5" s="1" t="s">
+      <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="V5" s="4">
+      <c r="B5" s="4">
         <v>152</v>
       </c>
     </row>

--- a/ProjectServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/ProjectServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanda\git\ServiceManagement_Project\ProjectServiceManagement\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7907A1D-5C77-4E12-A8CA-364FD92E9207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323D494F-CC2F-45C7-AB04-8ADB1FA0C83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="139" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,7 +592,7 @@
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,7 +876,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="4">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">

--- a/ProjectServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/ProjectServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanda\git\ServiceManagement_Project\ProjectServiceManagement\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323D494F-CC2F-45C7-AB04-8ADB1FA0C83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2E4B5E-94BF-48D9-91B2-2A809B9C17FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="139" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>Username</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>admine1</t>
-  </si>
-  <si>
-    <t>admine2</t>
-  </si>
-  <si>
-    <t>admin3333</t>
   </si>
   <si>
     <t>admin@admin.com</t>
@@ -248,6 +242,75 @@
   </si>
   <si>
     <t>4,1</t>
+  </si>
+  <si>
+    <t>Reparation Table ID</t>
+  </si>
+  <si>
+    <t>Reparation table id value</t>
+  </si>
+  <si>
+    <t>Reparation_IMEI</t>
+  </si>
+  <si>
+    <t>TV12345</t>
+  </si>
+  <si>
+    <t>Reparation_Client</t>
+  </si>
+  <si>
+    <t>kiran1</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Joe Jacob</t>
+  </si>
+  <si>
+    <t>Reparation_AddTax</t>
+  </si>
+  <si>
+    <t>Reparation_AddAsignee</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>4,3</t>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>Reparation_AddCategory</t>
+  </si>
+  <si>
+    <t>Damaged</t>
+  </si>
+  <si>
+    <t>Sceen Damage</t>
+  </si>
+  <si>
+    <t>Reparation_AddDefect</t>
+  </si>
+  <si>
+    <t>Reparation_AddManufacturer</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Reparation_AddModel</t>
+  </si>
+  <si>
+    <t>SamsungS123</t>
+  </si>
+  <si>
+    <t>Reparation_AddServiceCharge</t>
   </si>
 </sst>
 </file>
@@ -591,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,144 +691,144 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="V1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="Y1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="AD1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="AF1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="AH1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="N2" s="1">
         <v>345345</v>
@@ -774,64 +837,64 @@
         <v>123456</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="Z2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="AD2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="AH2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
@@ -839,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W3" s="1">
         <v>22</v>
@@ -863,28 +926,94 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+    <row r="4" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="4">
         <v>151</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="1">
+        <v>500</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="U6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/ProjectServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanda\git\ServiceManagement_Project\ProjectServiceManagement\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2E4B5E-94BF-48D9-91B2-2A809B9C17FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE9BAFB-932A-4408-B6AF-0B501B3442FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="139" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>Client_Name</t>
   </si>
   <si>
-    <t>avon</t>
-  </si>
-  <si>
     <t>Company_Name</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>Reparation_AddServiceCharge</t>
+  </si>
+  <si>
+    <t>Aron</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,82 +712,82 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="Y1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="AE1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="AG1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="115.2" x14ac:dyDescent="0.3">
@@ -807,7 +807,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
@@ -816,19 +816,19 @@
         <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" s="1">
         <v>345345</v>
@@ -837,64 +837,64 @@
         <v>123456</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="W2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="Y2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AA2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AF2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
@@ -928,69 +928,69 @@
     </row>
     <row r="4" spans="1:35" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="4">
         <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="G5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5" s="1">
         <v>500</v>
@@ -998,22 +998,22 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="U6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/ProjectServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanda\git\ServiceManagement_Project\ProjectServiceManagement\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE9BAFB-932A-4408-B6AF-0B501B3442FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E610006-0B2C-4663-9901-68A12E87615E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="139" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>Username</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>Aron</t>
+  </si>
+  <si>
+    <t>Add_Reparation expected message</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -372,6 +375,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1016,6 +1022,16 @@
         <v>70</v>
       </c>
     </row>
+    <row r="7" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ProjectServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/ProjectServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanda\git\ServiceManagement_Project\ProjectServiceManagement\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E610006-0B2C-4663-9901-68A12E87615E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA3E8B9-08C6-4F0D-8403-0B4858095CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="139" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="0" windowWidth="17496" windowHeight="12240" tabRatio="139" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testSheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t>Username</t>
   </si>
@@ -310,10 +310,16 @@
     <t>Reparation_AddServiceCharge</t>
   </si>
   <si>
-    <t>Aron</t>
-  </si>
-  <si>
     <t>Add_Reparation expected message</t>
+  </si>
+  <si>
+    <t>Ajim</t>
+  </si>
+  <si>
+    <t>Add_Client Message</t>
+  </si>
+  <si>
+    <t>Client: Ajim</t>
   </si>
 </sst>
 </file>
@@ -661,7 +667,7 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,7 +828,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>19</v>
@@ -1024,12 +1030,18 @@
     </row>
     <row r="7" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
